--- a/data/pca/factorExposure/factorExposure_2018-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03693748366486456</v>
+        <v>-0.03013037844333608</v>
       </c>
       <c r="C2">
-        <v>0.04603435415517879</v>
+        <v>0.01213360503541227</v>
       </c>
       <c r="D2">
-        <v>0.03610339615705573</v>
+        <v>0.01071671093759982</v>
       </c>
       <c r="E2">
-        <v>-0.0565629006624451</v>
+        <v>-0.01382202272503134</v>
       </c>
       <c r="F2">
-        <v>0.1416664008500883</v>
+        <v>-0.02291717374398655</v>
       </c>
       <c r="G2">
-        <v>0.0912103984855905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07755314020820397</v>
+      </c>
+      <c r="H2">
+        <v>0.01857083034183169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1245489046031391</v>
+        <v>-0.07685210335854599</v>
       </c>
       <c r="C3">
-        <v>0.02144805845229403</v>
+        <v>-0.02100755228938324</v>
       </c>
       <c r="D3">
-        <v>0.03903052238437719</v>
+        <v>0.01961024268350428</v>
       </c>
       <c r="E3">
-        <v>-0.1076668928749616</v>
+        <v>-0.008426749159354598</v>
       </c>
       <c r="F3">
-        <v>0.395166971449694</v>
+        <v>0.007041773538832545</v>
       </c>
       <c r="G3">
-        <v>0.2346191185984292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2661598268593282</v>
+      </c>
+      <c r="H3">
+        <v>0.04681356872533408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0478849384006144</v>
+        <v>-0.04638372433024533</v>
       </c>
       <c r="C4">
-        <v>0.03912355754067259</v>
+        <v>-0.0006441670779082246</v>
       </c>
       <c r="D4">
-        <v>-0.002044330539129969</v>
+        <v>0.02631225162995069</v>
       </c>
       <c r="E4">
-        <v>-0.07043988931163989</v>
+        <v>0.02197676629462876</v>
       </c>
       <c r="F4">
-        <v>0.05936103990924246</v>
+        <v>-0.06126987936766994</v>
       </c>
       <c r="G4">
-        <v>0.06502423579438257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04419493334245873</v>
+      </c>
+      <c r="H4">
+        <v>0.02914358327673599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01169108095524828</v>
+        <v>-0.03005141548225683</v>
       </c>
       <c r="C6">
-        <v>0.001749138885478689</v>
+        <v>0.0001134777924268777</v>
       </c>
       <c r="D6">
-        <v>0.01121688706042079</v>
+        <v>0.03332913462573934</v>
       </c>
       <c r="E6">
-        <v>-0.009970034302302005</v>
+        <v>0.006145372775808101</v>
       </c>
       <c r="F6">
-        <v>0.01070112951670547</v>
+        <v>-0.03803075243774165</v>
       </c>
       <c r="G6">
-        <v>-0.01835616995548518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01261636581579302</v>
+      </c>
+      <c r="H6">
+        <v>0.05255375728739874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02622235157909309</v>
+        <v>-0.02050040325670505</v>
       </c>
       <c r="C7">
-        <v>0.01983770658751786</v>
+        <v>0.0004925683331028182</v>
       </c>
       <c r="D7">
-        <v>0.02943739537806436</v>
+        <v>0.01509123288773617</v>
       </c>
       <c r="E7">
-        <v>-0.04337787433844194</v>
+        <v>0.03631222806348336</v>
       </c>
       <c r="F7">
-        <v>0.06576036675656466</v>
+        <v>-0.02389770312046345</v>
       </c>
       <c r="G7">
-        <v>0.05572355879210104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03237900118918051</v>
+      </c>
+      <c r="H7">
+        <v>0.01645951953244117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009509770408427147</v>
+        <v>-0.001307529153613997</v>
       </c>
       <c r="C8">
-        <v>0.01110611217461154</v>
+        <v>-0.0007143959525785772</v>
       </c>
       <c r="D8">
-        <v>-0.004731344125653987</v>
+        <v>0.008777499233568067</v>
       </c>
       <c r="E8">
-        <v>-0.0761799617193613</v>
+        <v>0.01306961114579805</v>
       </c>
       <c r="F8">
-        <v>0.08631395940616521</v>
+        <v>-0.02581114485777419</v>
       </c>
       <c r="G8">
-        <v>0.06353089889883198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05054298565958028</v>
+      </c>
+      <c r="H8">
+        <v>0.00986601466417154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0395876870224668</v>
+        <v>-0.0361711750125359</v>
       </c>
       <c r="C9">
-        <v>0.03364271238825522</v>
+        <v>-0.003476278796809047</v>
       </c>
       <c r="D9">
-        <v>-0.01563362245190961</v>
+        <v>0.02240076760710705</v>
       </c>
       <c r="E9">
-        <v>-0.07342565871133569</v>
+        <v>0.01993931548730601</v>
       </c>
       <c r="F9">
-        <v>0.06235069207347538</v>
+        <v>-0.0393687081444235</v>
       </c>
       <c r="G9">
-        <v>0.0481044276201443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05597072195927455</v>
+      </c>
+      <c r="H9">
+        <v>0.0286398989495038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05986574961054117</v>
+        <v>-0.08777875435816203</v>
       </c>
       <c r="C10">
-        <v>0.05085872274157503</v>
+        <v>-0.0411106997364151</v>
       </c>
       <c r="D10">
-        <v>-0.02002724697510644</v>
+        <v>-0.1435333581711915</v>
       </c>
       <c r="E10">
-        <v>0.1118810119916344</v>
+        <v>-0.02083162612841047</v>
       </c>
       <c r="F10">
-        <v>0.05608618567026499</v>
+        <v>0.08432077554257486</v>
       </c>
       <c r="G10">
-        <v>-0.004277771058880195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02799009809872482</v>
+      </c>
+      <c r="H10">
+        <v>0.004751545789489235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03124253253432311</v>
+        <v>-0.02174570030930527</v>
       </c>
       <c r="C11">
-        <v>0.01206632108187185</v>
+        <v>-0.01058092128669065</v>
       </c>
       <c r="D11">
-        <v>0.01570632479912011</v>
+        <v>0.03132203916689962</v>
       </c>
       <c r="E11">
-        <v>-0.03712675726076033</v>
+        <v>-0.003015300603774783</v>
       </c>
       <c r="F11">
-        <v>0.03540086179182585</v>
+        <v>-0.02518807648375134</v>
       </c>
       <c r="G11">
-        <v>0.01925964165859501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03292857574302955</v>
+      </c>
+      <c r="H11">
+        <v>0.02881827720506264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03860746330756069</v>
+        <v>-0.03035670433925846</v>
       </c>
       <c r="C12">
-        <v>0.01359385449160662</v>
+        <v>-0.009800579356602473</v>
       </c>
       <c r="D12">
-        <v>0.002456020857972864</v>
+        <v>0.0301167894699777</v>
       </c>
       <c r="E12">
-        <v>-0.04840274785929106</v>
+        <v>0.007963643020785829</v>
       </c>
       <c r="F12">
-        <v>0.01563788865455975</v>
+        <v>-0.02835591749692489</v>
       </c>
       <c r="G12">
-        <v>0.0158304593266462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.009685283336740392</v>
+      </c>
+      <c r="H12">
+        <v>0.01561917391311684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01740239919611363</v>
+        <v>-0.02457464063689828</v>
       </c>
       <c r="C13">
-        <v>0.02315492061481186</v>
+        <v>0.01138471836468726</v>
       </c>
       <c r="D13">
-        <v>0.03469992035313098</v>
+        <v>0.002142898925731074</v>
       </c>
       <c r="E13">
-        <v>-0.02348143287458316</v>
+        <v>-0.0159045288701453</v>
       </c>
       <c r="F13">
-        <v>0.08748876574321159</v>
+        <v>-0.02151585673128797</v>
       </c>
       <c r="G13">
-        <v>0.04872755469063109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06166835166396663</v>
+      </c>
+      <c r="H13">
+        <v>0.02759507362391685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01017476208694642</v>
+        <v>-0.01518750264606335</v>
       </c>
       <c r="C14">
-        <v>0.02290119485882568</v>
+        <v>-0.001569750320960876</v>
       </c>
       <c r="D14">
-        <v>0.002989094828994279</v>
+        <v>-0.0004422594003761686</v>
       </c>
       <c r="E14">
-        <v>-0.04351524441651199</v>
+        <v>0.008325708640142771</v>
       </c>
       <c r="F14">
-        <v>0.06588376289211341</v>
+        <v>-0.0257761232437999</v>
       </c>
       <c r="G14">
-        <v>0.06027004132137471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04157547711781442</v>
+      </c>
+      <c r="H14">
+        <v>-0.01760040617294596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02445221812289854</v>
+        <v>-0.02273643503955433</v>
       </c>
       <c r="C16">
-        <v>0.01235710559713235</v>
+        <v>-0.01106091468917869</v>
       </c>
       <c r="D16">
-        <v>0.01285611682750086</v>
+        <v>0.02683597698534198</v>
       </c>
       <c r="E16">
-        <v>-0.03636330649236286</v>
+        <v>0.001869455136796839</v>
       </c>
       <c r="F16">
-        <v>0.03691169759100479</v>
+        <v>-0.0255330257802868</v>
       </c>
       <c r="G16">
-        <v>0.02411361610468138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0279980544054171</v>
+      </c>
+      <c r="H16">
+        <v>0.02288064658342508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03526372910262316</v>
+        <v>-0.03335005878699876</v>
       </c>
       <c r="C19">
-        <v>0.01548064144601169</v>
+        <v>-0.004091901660597207</v>
       </c>
       <c r="D19">
-        <v>0.02191269312697291</v>
+        <v>0.00805062267309908</v>
       </c>
       <c r="E19">
-        <v>-0.04712318389046225</v>
+        <v>-0.00166985822989126</v>
       </c>
       <c r="F19">
-        <v>0.09933129641846387</v>
+        <v>-0.03206136973151899</v>
       </c>
       <c r="G19">
-        <v>0.0579199278230732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06534817632047725</v>
+      </c>
+      <c r="H19">
+        <v>0.04096817715873406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006425319171083501</v>
+        <v>-0.006758676379583959</v>
       </c>
       <c r="C20">
-        <v>0.02297577454919759</v>
+        <v>0.006836624850776811</v>
       </c>
       <c r="D20">
-        <v>0.007344552434863181</v>
+        <v>4.284228027310645e-05</v>
       </c>
       <c r="E20">
-        <v>-0.03214354573781093</v>
+        <v>0.001692354644210726</v>
       </c>
       <c r="F20">
-        <v>0.06670749780534684</v>
+        <v>-0.01750957425245198</v>
       </c>
       <c r="G20">
-        <v>0.05889355567311657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04960880634797507</v>
+      </c>
+      <c r="H20">
+        <v>-0.007881014107548216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003583450790274281</v>
+        <v>-0.02017053107373354</v>
       </c>
       <c r="C21">
-        <v>-0.001603156382163756</v>
+        <v>0.004573876732994141</v>
       </c>
       <c r="D21">
-        <v>0.004388800329816927</v>
+        <v>0.0002184848918960035</v>
       </c>
       <c r="E21">
-        <v>-0.03664820913876045</v>
+        <v>0.01277837238060855</v>
       </c>
       <c r="F21">
-        <v>0.07736375722107711</v>
+        <v>-0.007897080127216865</v>
       </c>
       <c r="G21">
-        <v>0.01904416703742549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05203740345105892</v>
+      </c>
+      <c r="H21">
+        <v>0.01003908882097197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02675216492076101</v>
+        <v>-0.02169539237484147</v>
       </c>
       <c r="C24">
-        <v>0.01328615850750916</v>
+        <v>-0.005626033186636101</v>
       </c>
       <c r="D24">
-        <v>0.009741805574510405</v>
+        <v>0.02721439591491867</v>
       </c>
       <c r="E24">
-        <v>-0.02829957907860493</v>
+        <v>0.001866459967454946</v>
       </c>
       <c r="F24">
-        <v>0.03594199657731047</v>
+        <v>-0.02196189741076373</v>
       </c>
       <c r="G24">
-        <v>0.01182383477217607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02664336981853823</v>
+      </c>
+      <c r="H24">
+        <v>0.02840559934181335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02968580088834391</v>
+        <v>-0.03274346950882145</v>
       </c>
       <c r="C25">
-        <v>0.01190450339986467</v>
+        <v>-0.005548146785160028</v>
       </c>
       <c r="D25">
-        <v>0.007861112792393569</v>
+        <v>0.02229345311448201</v>
       </c>
       <c r="E25">
-        <v>-0.03750411141819153</v>
+        <v>0.002297641163764361</v>
       </c>
       <c r="F25">
-        <v>0.03162681336537006</v>
+        <v>-0.02680477397474658</v>
       </c>
       <c r="G25">
-        <v>0.005532584496228479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03076577433548761</v>
+      </c>
+      <c r="H25">
+        <v>0.03058390039405086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01822988356901194</v>
+        <v>-0.0189091207891435</v>
       </c>
       <c r="C26">
-        <v>0.0014039602157489</v>
+        <v>0.01607997403339002</v>
       </c>
       <c r="D26">
-        <v>0.03510830232287719</v>
+        <v>0.003342637717304879</v>
       </c>
       <c r="E26">
-        <v>-0.04279391818842349</v>
+        <v>-0.006013629454183372</v>
       </c>
       <c r="F26">
-        <v>0.05249649495145651</v>
+        <v>-0.00627378116138373</v>
       </c>
       <c r="G26">
-        <v>0.03465471338792894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03594044396495395</v>
+      </c>
+      <c r="H26">
+        <v>-0.001074850853742535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0727726875678442</v>
+        <v>-0.03172205119532911</v>
       </c>
       <c r="C27">
-        <v>0.0526831704276237</v>
+        <v>-0.01641692568432123</v>
       </c>
       <c r="D27">
-        <v>0.0006903300934247342</v>
+        <v>0.007496373935266494</v>
       </c>
       <c r="E27">
-        <v>-0.06645746004529628</v>
+        <v>0.004350776754563614</v>
       </c>
       <c r="F27">
-        <v>0.0523235926753641</v>
+        <v>-0.0284032265093257</v>
       </c>
       <c r="G27">
-        <v>0.06217748978911505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02680800443624881</v>
+      </c>
+      <c r="H27">
+        <v>-0.0004747508459248667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08501257471174074</v>
+        <v>-0.1337464795112787</v>
       </c>
       <c r="C28">
-        <v>0.06488386005347879</v>
+        <v>-0.04822827214727742</v>
       </c>
       <c r="D28">
-        <v>-0.03728143874259231</v>
+        <v>-0.2113147462121298</v>
       </c>
       <c r="E28">
-        <v>0.1748217366636865</v>
+        <v>-0.02641868667658316</v>
       </c>
       <c r="F28">
-        <v>0.07159031204407332</v>
+        <v>0.1162828211108286</v>
       </c>
       <c r="G28">
-        <v>0.02787186562994587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01006294898300883</v>
+      </c>
+      <c r="H28">
+        <v>-0.007742532497826727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01735853170636619</v>
+        <v>-0.01958604791061721</v>
       </c>
       <c r="C29">
-        <v>0.02472986160125729</v>
+        <v>-0.004117776797565671</v>
       </c>
       <c r="D29">
-        <v>-0.003857056126082202</v>
+        <v>0.001655236357631497</v>
       </c>
       <c r="E29">
-        <v>-0.06167186025070091</v>
+        <v>0.01049339769548763</v>
       </c>
       <c r="F29">
-        <v>0.04586291722062694</v>
+        <v>-0.02870907861239671</v>
       </c>
       <c r="G29">
-        <v>0.06042071918075781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0335611093945392</v>
+      </c>
+      <c r="H29">
+        <v>-0.01925298165558915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08029160975906616</v>
+        <v>-0.05443337846200743</v>
       </c>
       <c r="C30">
-        <v>0.05867457471060299</v>
+        <v>-0.002683826264804934</v>
       </c>
       <c r="D30">
-        <v>0.0336364518450698</v>
+        <v>0.04995025525916433</v>
       </c>
       <c r="E30">
-        <v>-0.09564390567589709</v>
+        <v>-0.0329405144769858</v>
       </c>
       <c r="F30">
-        <v>0.04881407634162911</v>
+        <v>-0.07970122817281861</v>
       </c>
       <c r="G30">
-        <v>0.02415086078602706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06124129726591766</v>
+      </c>
+      <c r="H30">
+        <v>0.03926195329021069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05885592582888868</v>
+        <v>-0.05299005635847186</v>
       </c>
       <c r="C31">
-        <v>0.01947127664986148</v>
+        <v>-0.02059385887628869</v>
       </c>
       <c r="D31">
-        <v>0.04824808432803493</v>
+        <v>0.02207594332527322</v>
       </c>
       <c r="E31">
-        <v>-0.04444767776690924</v>
+        <v>-0.009083012533424613</v>
       </c>
       <c r="F31">
-        <v>0.03290231418426354</v>
+        <v>-0.02402418953810838</v>
       </c>
       <c r="G31">
-        <v>0.08543362848631404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02058901183670664</v>
+      </c>
+      <c r="H31">
+        <v>-0.01430387161914227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01380083197376331</v>
+        <v>-0.008490042112497362</v>
       </c>
       <c r="C32">
-        <v>0.02528496540819805</v>
+        <v>-0.01552273402746999</v>
       </c>
       <c r="D32">
-        <v>-0.001912690536221773</v>
+        <v>-0.009312959586625189</v>
       </c>
       <c r="E32">
-        <v>-0.07405704734086976</v>
+        <v>0.01900811388630105</v>
       </c>
       <c r="F32">
-        <v>0.06367951191494048</v>
+        <v>-0.04222797768881863</v>
       </c>
       <c r="G32">
-        <v>0.04268759211456635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04966761133158696</v>
+      </c>
+      <c r="H32">
+        <v>0.04342736289910699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04939064106211085</v>
+        <v>-0.0378023388883192</v>
       </c>
       <c r="C33">
-        <v>0.004853055888429584</v>
+        <v>-0.004326675218722612</v>
       </c>
       <c r="D33">
-        <v>0.04566596816468377</v>
+        <v>0.02930485201837749</v>
       </c>
       <c r="E33">
-        <v>-0.07261928092299226</v>
+        <v>-0.02205264940982853</v>
       </c>
       <c r="F33">
-        <v>0.08751175410731354</v>
+        <v>-0.01649171261348628</v>
       </c>
       <c r="G33">
-        <v>0.04277390792173567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05779635105508365</v>
+      </c>
+      <c r="H33">
+        <v>0.01836096255958208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0295100550997979</v>
+        <v>-0.02610731302694235</v>
       </c>
       <c r="C34">
-        <v>0.01739212079885374</v>
+        <v>-0.02004424748261817</v>
       </c>
       <c r="D34">
-        <v>0.01218747177495605</v>
+        <v>0.02635198896390838</v>
       </c>
       <c r="E34">
-        <v>-0.04379081781136804</v>
+        <v>0.006273129512496967</v>
       </c>
       <c r="F34">
-        <v>0.03970967445201089</v>
+        <v>-0.02771899690990667</v>
       </c>
       <c r="G34">
-        <v>0.01272161692655974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02611484137388573</v>
+      </c>
+      <c r="H34">
+        <v>0.02615886528692221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0132872137503989</v>
+        <v>-0.01864490687145347</v>
       </c>
       <c r="C36">
-        <v>0.01172033351644455</v>
+        <v>0.002270777572486112</v>
       </c>
       <c r="D36">
-        <v>0.002457000740241903</v>
+        <v>-0.002978333411742963</v>
       </c>
       <c r="E36">
-        <v>-0.02990399867186807</v>
+        <v>0.002451852973618376</v>
       </c>
       <c r="F36">
-        <v>0.0244904340533057</v>
+        <v>-0.007610976715333588</v>
       </c>
       <c r="G36">
-        <v>0.03596553364157484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01817937336725109</v>
+      </c>
+      <c r="H36">
+        <v>-0.004270834400114185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008334906934274484</v>
+        <v>-0.01719695504894218</v>
       </c>
       <c r="C38">
-        <v>-0.001709454125429341</v>
+        <v>-0.01777510809615325</v>
       </c>
       <c r="D38">
-        <v>-0.01175429524959607</v>
+        <v>-0.004365586540125315</v>
       </c>
       <c r="E38">
-        <v>0.008232325621657786</v>
+        <v>0.005706552654058608</v>
       </c>
       <c r="F38">
-        <v>0.004112503297285712</v>
+        <v>-0.007508533891954655</v>
       </c>
       <c r="G38">
-        <v>-0.003698155604754606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02520162600786256</v>
+      </c>
+      <c r="H38">
+        <v>0.02117189684004281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03718555394436924</v>
+        <v>-0.02319236001947918</v>
       </c>
       <c r="C39">
-        <v>0.02312601998291499</v>
+        <v>-0.003636191554343505</v>
       </c>
       <c r="D39">
-        <v>0.02960449965891293</v>
+        <v>0.06379053986638937</v>
       </c>
       <c r="E39">
-        <v>-0.04477208968600824</v>
+        <v>-0.0005744302076790215</v>
       </c>
       <c r="F39">
-        <v>0.04263558874732901</v>
+        <v>-0.04817486585107727</v>
       </c>
       <c r="G39">
-        <v>0.01535030823819761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05277984688827225</v>
+      </c>
+      <c r="H39">
+        <v>0.05180439842883845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02919347993684456</v>
+        <v>-0.0272503781520446</v>
       </c>
       <c r="C40">
-        <v>0.03785599095027412</v>
+        <v>-0.002880834559820796</v>
       </c>
       <c r="D40">
-        <v>0.05468910156392515</v>
+        <v>0.02052234763854568</v>
       </c>
       <c r="E40">
-        <v>-0.04232003333922017</v>
+        <v>-0.01850721903481518</v>
       </c>
       <c r="F40">
-        <v>0.08230119179660507</v>
+        <v>-0.03770720306080813</v>
       </c>
       <c r="G40">
-        <v>0.05592372640271136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03797952811525546</v>
+      </c>
+      <c r="H40">
+        <v>0.04663124798628637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001865782676742104</v>
+        <v>-0.007626607891174122</v>
       </c>
       <c r="C41">
-        <v>-0.008622900744647062</v>
+        <v>0.0006786315417094216</v>
       </c>
       <c r="D41">
-        <v>0.006552113624492891</v>
+        <v>-0.008477127074097028</v>
       </c>
       <c r="E41">
-        <v>-0.02145148393621786</v>
+        <v>-0.001478522183657802</v>
       </c>
       <c r="F41">
-        <v>0.01501856444651284</v>
+        <v>0.005452996857452493</v>
       </c>
       <c r="G41">
-        <v>0.05759898000762047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007619245397684596</v>
+      </c>
+      <c r="H41">
+        <v>-0.01743043199671789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3904741015820575</v>
+        <v>-0.2164061226107729</v>
       </c>
       <c r="C42">
-        <v>-0.8812592889929449</v>
+        <v>0.08873198503922616</v>
       </c>
       <c r="D42">
-        <v>0.1756141990407691</v>
+        <v>0.603198829915108</v>
       </c>
       <c r="E42">
-        <v>0.09443104307695839</v>
+        <v>-0.124477005072158</v>
       </c>
       <c r="F42">
-        <v>-0.02241170869821778</v>
+        <v>0.7374173238128662</v>
       </c>
       <c r="G42">
-        <v>0.006258792522948498</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07302575116845426</v>
+      </c>
+      <c r="H42">
+        <v>0.01383176178829865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008803355424894597</v>
+        <v>-0.004769010156160808</v>
       </c>
       <c r="C43">
-        <v>-0.005029433591995616</v>
+        <v>0.003360983720699413</v>
       </c>
       <c r="D43">
-        <v>0.01080054376242753</v>
+        <v>-0.01082324890230948</v>
       </c>
       <c r="E43">
-        <v>-0.02248706145378692</v>
+        <v>-0.005639704302486575</v>
       </c>
       <c r="F43">
-        <v>0.03317293739436832</v>
+        <v>0.01025415440040941</v>
       </c>
       <c r="G43">
-        <v>0.0548074932399668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01570138757275175</v>
+      </c>
+      <c r="H43">
+        <v>-0.009319757978424372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01882007958839111</v>
+        <v>-0.0119871970509423</v>
       </c>
       <c r="C44">
-        <v>0.006499119713426864</v>
+        <v>-0.000491992174745447</v>
       </c>
       <c r="D44">
-        <v>0.02427242653465884</v>
+        <v>0.02132281770037352</v>
       </c>
       <c r="E44">
-        <v>-0.0712597477626775</v>
+        <v>0.001785714767044389</v>
       </c>
       <c r="F44">
-        <v>0.1872618190378877</v>
+        <v>-0.006871965912650638</v>
       </c>
       <c r="G44">
-        <v>0.1639250639405656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08563551599173826</v>
+      </c>
+      <c r="H44">
+        <v>0.01687724816089574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01669439779323211</v>
+        <v>-0.02077304899244427</v>
       </c>
       <c r="C46">
-        <v>0.02309377605726018</v>
+        <v>-0.0006094848611384277</v>
       </c>
       <c r="D46">
-        <v>0.0211291157521975</v>
+        <v>0.003994115710566889</v>
       </c>
       <c r="E46">
-        <v>-0.07048442617781216</v>
+        <v>-0.001510963564143804</v>
       </c>
       <c r="F46">
-        <v>0.06589428778021372</v>
+        <v>-0.03329804412096836</v>
       </c>
       <c r="G46">
-        <v>0.0453360394593302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05353813179397254</v>
+      </c>
+      <c r="H46">
+        <v>-0.01247893579090283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0940595506935311</v>
+        <v>-0.07335767256798892</v>
       </c>
       <c r="C47">
-        <v>0.03610012913426432</v>
+        <v>-0.03883388021612225</v>
       </c>
       <c r="D47">
-        <v>0.02398695290532255</v>
+        <v>0.02761089567353391</v>
       </c>
       <c r="E47">
-        <v>-0.05014147152702794</v>
+        <v>-0.004658295869809622</v>
       </c>
       <c r="F47">
-        <v>0.001912160807993755</v>
+        <v>-0.03426497016275961</v>
       </c>
       <c r="G47">
-        <v>0.09606216436558229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01119117327819979</v>
+      </c>
+      <c r="H47">
+        <v>-0.03113668363601512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009691604026318218</v>
+        <v>-0.01773232971451249</v>
       </c>
       <c r="C48">
-        <v>0.007862067818565261</v>
+        <v>-0.007579901217809369</v>
       </c>
       <c r="D48">
-        <v>0.01376819613677342</v>
+        <v>0.002932305954054412</v>
       </c>
       <c r="E48">
-        <v>-0.04132886159050762</v>
+        <v>-0.0013437002125006</v>
       </c>
       <c r="F48">
-        <v>0.03876999681060291</v>
+        <v>-0.01270022032220893</v>
       </c>
       <c r="G48">
-        <v>0.009991258981680519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02530641957289713</v>
+      </c>
+      <c r="H48">
+        <v>0.0005348964458189164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08532202753269742</v>
+        <v>-0.06603512200417269</v>
       </c>
       <c r="C50">
-        <v>0.01883322326352293</v>
+        <v>-0.03214016380524006</v>
       </c>
       <c r="D50">
-        <v>0.03673486611367713</v>
+        <v>0.03955286901023992</v>
       </c>
       <c r="E50">
-        <v>-0.06548959151579435</v>
+        <v>0.01046401003588762</v>
       </c>
       <c r="F50">
-        <v>0.02133359032234515</v>
+        <v>-0.03174146537862838</v>
       </c>
       <c r="G50">
-        <v>0.02100338220752071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02003885828862117</v>
+      </c>
+      <c r="H50">
+        <v>-0.026304714069023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03951057504279442</v>
+        <v>-0.0256803655614664</v>
       </c>
       <c r="C51">
-        <v>-0.001721077262868572</v>
+        <v>-0.00348130124024319</v>
       </c>
       <c r="D51">
-        <v>0.04582166045366416</v>
+        <v>-0.003620826052971848</v>
       </c>
       <c r="E51">
-        <v>-0.02348585066056096</v>
+        <v>-0.01330608543936151</v>
       </c>
       <c r="F51">
-        <v>0.1422683500591071</v>
+        <v>0.01647029881604309</v>
       </c>
       <c r="G51">
-        <v>0.05973506639195812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07510680274588155</v>
+      </c>
+      <c r="H51">
+        <v>0.01952046024329827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1010601572709569</v>
+        <v>-0.09375298885430053</v>
       </c>
       <c r="C53">
-        <v>0.04998840630620188</v>
+        <v>-0.04883457632450328</v>
       </c>
       <c r="D53">
-        <v>0.04175265231030018</v>
+        <v>0.0528068322213753</v>
       </c>
       <c r="E53">
-        <v>-0.05378937905964285</v>
+        <v>-0.001857214895305944</v>
       </c>
       <c r="F53">
-        <v>-0.05994047860302134</v>
+        <v>-0.06902354788902926</v>
       </c>
       <c r="G53">
-        <v>0.04307008772660597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05758129443180825</v>
+      </c>
+      <c r="H53">
+        <v>-0.03662926493644976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01974545079933628</v>
+        <v>-0.02276962998231695</v>
       </c>
       <c r="C54">
-        <v>0.03882623996990577</v>
+        <v>-0.01560502080767425</v>
       </c>
       <c r="D54">
-        <v>0.0008710027281847288</v>
+        <v>-0.02481782849781206</v>
       </c>
       <c r="E54">
-        <v>-0.03189891022856096</v>
+        <v>0.003013944925498488</v>
       </c>
       <c r="F54">
-        <v>0.07717111564535294</v>
+        <v>-0.009937662816133458</v>
       </c>
       <c r="G54">
-        <v>0.06696309708311177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04003675133276599</v>
+      </c>
+      <c r="H54">
+        <v>-0.01730255085793446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09891577086488763</v>
+        <v>-0.08116866831214049</v>
       </c>
       <c r="C55">
-        <v>0.03606719168263443</v>
+        <v>-0.04313252624878757</v>
       </c>
       <c r="D55">
-        <v>-0.001586931781946576</v>
+        <v>0.05194120165626494</v>
       </c>
       <c r="E55">
-        <v>-0.06133151385710928</v>
+        <v>0.01036858013124786</v>
       </c>
       <c r="F55">
-        <v>-0.04947535685341723</v>
+        <v>-0.05802946843901099</v>
       </c>
       <c r="G55">
-        <v>0.05933470432800644</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03333465628565713</v>
+      </c>
+      <c r="H55">
+        <v>-0.04816535671541338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1392921077613101</v>
+        <v>-0.1247875671781983</v>
       </c>
       <c r="C56">
-        <v>0.07817381138426464</v>
+        <v>-0.071499128496678</v>
       </c>
       <c r="D56">
-        <v>0.02768683043665076</v>
+        <v>0.07072479183522343</v>
       </c>
       <c r="E56">
-        <v>-0.0699264688996437</v>
+        <v>0.00319353678755708</v>
       </c>
       <c r="F56">
-        <v>-0.1656052542014678</v>
+        <v>-0.098243708240425</v>
       </c>
       <c r="G56">
-        <v>0.02963267190742714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1008807169241327</v>
+      </c>
+      <c r="H56">
+        <v>-0.02991878124256361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04502380354322173</v>
+        <v>-0.04576963508756165</v>
       </c>
       <c r="C57">
-        <v>0.01825651703454939</v>
+        <v>0.002887185835280652</v>
       </c>
       <c r="D57">
-        <v>0.02919449935457268</v>
+        <v>0.01621330797591613</v>
       </c>
       <c r="E57">
-        <v>-0.01832300232943323</v>
+        <v>-0.0105123714280506</v>
       </c>
       <c r="F57">
-        <v>0.06789516792224867</v>
+        <v>-0.02834379019476852</v>
       </c>
       <c r="G57">
-        <v>0.02115643361539251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06060201930067015</v>
+      </c>
+      <c r="H57">
+        <v>0.01277692951207205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2004944487192865</v>
+        <v>-0.1498931778259553</v>
       </c>
       <c r="C58">
-        <v>0.06750259853325226</v>
+        <v>-0.06168297728636869</v>
       </c>
       <c r="D58">
-        <v>0.112571691073354</v>
+        <v>0.1097483894396417</v>
       </c>
       <c r="E58">
-        <v>-0.2440445150186187</v>
+        <v>-0.1174420734550133</v>
       </c>
       <c r="F58">
-        <v>0.2761360086902724</v>
+        <v>-0.06116392469127521</v>
       </c>
       <c r="G58">
-        <v>-0.3620423438944047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.699917140687</v>
+      </c>
+      <c r="H58">
+        <v>-0.534233245373277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0822121159650519</v>
+        <v>-0.135761820070584</v>
       </c>
       <c r="C59">
-        <v>0.08831376659298086</v>
+        <v>-0.0555467122034207</v>
       </c>
       <c r="D59">
-        <v>-0.02873891951041479</v>
+        <v>-0.2102708356773742</v>
       </c>
       <c r="E59">
-        <v>0.1489740942503351</v>
+        <v>-0.04292910693515072</v>
       </c>
       <c r="F59">
-        <v>0.06593429409106093</v>
+        <v>0.09693916777084984</v>
       </c>
       <c r="G59">
-        <v>-0.001440155164754994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01578443885396831</v>
+      </c>
+      <c r="H59">
+        <v>0.02353722013830933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1669911813502119</v>
+        <v>-0.1698229611330186</v>
       </c>
       <c r="C60">
-        <v>0.06909933424403691</v>
+        <v>-0.05911323344743964</v>
       </c>
       <c r="D60">
-        <v>0.06648757764639562</v>
+        <v>0.008332611294281518</v>
       </c>
       <c r="E60">
-        <v>-0.03160881826519629</v>
+        <v>-0.05360249367435874</v>
       </c>
       <c r="F60">
-        <v>0.07774304512058511</v>
+        <v>-0.06278332739901796</v>
       </c>
       <c r="G60">
-        <v>-0.2866566988929083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1216832161591286</v>
+      </c>
+      <c r="H60">
+        <v>0.3757954887258745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02028367300004104</v>
+        <v>-0.0226082024622746</v>
       </c>
       <c r="C61">
-        <v>0.01411331279701565</v>
+        <v>-0.009294633530731584</v>
       </c>
       <c r="D61">
-        <v>0.004880931745173798</v>
+        <v>0.03301605989307048</v>
       </c>
       <c r="E61">
-        <v>-0.02098383106761157</v>
+        <v>0.003447411297472548</v>
       </c>
       <c r="F61">
-        <v>0.03260236478204762</v>
+        <v>-0.03427136325236944</v>
       </c>
       <c r="G61">
-        <v>0.004383139664389335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03118882423042117</v>
+      </c>
+      <c r="H61">
+        <v>0.03833934867063244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01707088693935635</v>
+        <v>-0.01452927278309656</v>
       </c>
       <c r="C63">
-        <v>0.01772756298769699</v>
+        <v>-0.0008054933093201641</v>
       </c>
       <c r="D63">
-        <v>0.01350736146810409</v>
+        <v>0.004106991449694527</v>
       </c>
       <c r="E63">
-        <v>-0.0414454557262568</v>
+        <v>0.002384106601403993</v>
       </c>
       <c r="F63">
-        <v>0.01111943177030387</v>
+        <v>-0.02262144535094844</v>
       </c>
       <c r="G63">
-        <v>0.03872383680799089</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01427836680926973</v>
+      </c>
+      <c r="H63">
+        <v>-0.01249647216775025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03043983992169585</v>
+        <v>-0.03791364886113315</v>
       </c>
       <c r="C64">
-        <v>0.02278510824601884</v>
+        <v>-0.01395332365945598</v>
       </c>
       <c r="D64">
-        <v>-0.01920245630216228</v>
+        <v>0.0296083505640531</v>
       </c>
       <c r="E64">
-        <v>-0.04562689057145569</v>
+        <v>0.01278226767517459</v>
       </c>
       <c r="F64">
-        <v>0.01975351337207786</v>
+        <v>-0.02825302616573004</v>
       </c>
       <c r="G64">
-        <v>0.07275637789632601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01618544097738468</v>
+      </c>
+      <c r="H64">
+        <v>0.02866125828005296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01195068612867504</v>
+        <v>-0.03548811498992167</v>
       </c>
       <c r="C65">
-        <v>0.0004346763772421211</v>
+        <v>-0.0002435994032918659</v>
       </c>
       <c r="D65">
-        <v>0.01005800713853699</v>
+        <v>0.03821600880409324</v>
       </c>
       <c r="E65">
-        <v>-0.006320902116473791</v>
+        <v>0.006300806074885269</v>
       </c>
       <c r="F65">
-        <v>0.006563601796608045</v>
+        <v>-0.03951993712249187</v>
       </c>
       <c r="G65">
-        <v>-0.01872725348920911</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003358425981861683</v>
+      </c>
+      <c r="H65">
+        <v>0.06003357270234688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03469720957500662</v>
+        <v>-0.03021881106372209</v>
       </c>
       <c r="C66">
-        <v>0.02603549111016129</v>
+        <v>-0.009691032140473069</v>
       </c>
       <c r="D66">
-        <v>0.02242607512379863</v>
+        <v>0.0709138024480534</v>
       </c>
       <c r="E66">
-        <v>-0.04769255639867746</v>
+        <v>-0.005263608886400356</v>
       </c>
       <c r="F66">
-        <v>0.03552787845271463</v>
+        <v>-0.06794217441132631</v>
       </c>
       <c r="G66">
-        <v>0.007081211882916266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04281056010294596</v>
+      </c>
+      <c r="H66">
+        <v>0.06250354797438927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02703085041102415</v>
+        <v>-0.03679855256086863</v>
       </c>
       <c r="C67">
-        <v>0.007049184331278723</v>
+        <v>-0.02334872172039189</v>
       </c>
       <c r="D67">
-        <v>-0.01425341918279133</v>
+        <v>-0.01093313387874606</v>
       </c>
       <c r="E67">
-        <v>0.03376910208490533</v>
+        <v>0.002173997803507317</v>
       </c>
       <c r="F67">
-        <v>0.01054763855527465</v>
+        <v>-0.009473263606202402</v>
       </c>
       <c r="G67">
-        <v>-0.001950034430199832</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01484676315985275</v>
+      </c>
+      <c r="H67">
+        <v>0.03209593677330519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09073033814038128</v>
+        <v>-0.1386972947762399</v>
       </c>
       <c r="C68">
-        <v>0.07046415224490866</v>
+        <v>-0.03406612301964122</v>
       </c>
       <c r="D68">
-        <v>-0.04388192562379423</v>
+        <v>-0.195009357865323</v>
       </c>
       <c r="E68">
-        <v>0.1704353925541904</v>
+        <v>-0.03802646918164278</v>
       </c>
       <c r="F68">
-        <v>0.03957556151624517</v>
+        <v>0.1142453374269124</v>
       </c>
       <c r="G68">
-        <v>-0.0527190277288465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01587592041694802</v>
+      </c>
+      <c r="H68">
+        <v>-0.03742968052442808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07288664530041877</v>
+        <v>-0.05683208708969758</v>
       </c>
       <c r="C69">
-        <v>0.03598112305570231</v>
+        <v>-0.03484309742622159</v>
       </c>
       <c r="D69">
-        <v>0.02483312597157156</v>
+        <v>0.02507796718635641</v>
       </c>
       <c r="E69">
-        <v>-0.01053062424502073</v>
+        <v>-0.00446212802008648</v>
       </c>
       <c r="F69">
-        <v>0.02024668962147088</v>
+        <v>-0.03242994292771569</v>
       </c>
       <c r="G69">
-        <v>0.07298749522757933</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003324093998191919</v>
+      </c>
+      <c r="H69">
+        <v>-0.01217125341231139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1096367311467058</v>
+        <v>-0.1325259833269264</v>
       </c>
       <c r="C71">
-        <v>0.0739775876852944</v>
+        <v>-0.04177273081336419</v>
       </c>
       <c r="D71">
-        <v>-0.02036119698315141</v>
+        <v>-0.1819956401417334</v>
       </c>
       <c r="E71">
-        <v>0.2129105428174659</v>
+        <v>-0.03832442316886403</v>
       </c>
       <c r="F71">
-        <v>0.05633919329832879</v>
+        <v>0.1196743439375101</v>
       </c>
       <c r="G71">
-        <v>0.002445173507780708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01401718083146303</v>
+      </c>
+      <c r="H71">
+        <v>-0.02111412650627812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1095050720537665</v>
+        <v>-0.08690422619236347</v>
       </c>
       <c r="C72">
-        <v>0.09959866483152349</v>
+        <v>-0.05355861232041369</v>
       </c>
       <c r="D72">
-        <v>0.01797920821557107</v>
+        <v>0.0527236518184551</v>
       </c>
       <c r="E72">
-        <v>-0.0729978195592914</v>
+        <v>-0.007736059037193033</v>
       </c>
       <c r="F72">
-        <v>0.08151570226042922</v>
+        <v>-0.1117579477908993</v>
       </c>
       <c r="G72">
-        <v>-0.1647490748065958</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09596231012926082</v>
+      </c>
+      <c r="H72">
+        <v>0.1502478203832168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2499263828924188</v>
+        <v>-0.2374213044238551</v>
       </c>
       <c r="C73">
-        <v>0.09997458413962902</v>
+        <v>-0.07746291691823981</v>
       </c>
       <c r="D73">
-        <v>0.06229480591825232</v>
+        <v>0.03667228883993359</v>
       </c>
       <c r="E73">
-        <v>0.01311684094864095</v>
+        <v>-0.0833166312136967</v>
       </c>
       <c r="F73">
-        <v>0.1592602916106358</v>
+        <v>-0.07704464684405245</v>
       </c>
       <c r="G73">
-        <v>-0.4442599818466718</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1810622969832311</v>
+      </c>
+      <c r="H73">
+        <v>0.5134347552361013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1218069805853674</v>
+        <v>-0.1121368884158754</v>
       </c>
       <c r="C74">
-        <v>0.04383656872807422</v>
+        <v>-0.06349702882196591</v>
       </c>
       <c r="D74">
-        <v>0.0338597389159962</v>
+        <v>0.07299270615168424</v>
       </c>
       <c r="E74">
-        <v>-0.03545379945608526</v>
+        <v>-0.005443323945668673</v>
       </c>
       <c r="F74">
-        <v>-0.1182433747341496</v>
+        <v>-0.08163313132547753</v>
       </c>
       <c r="G74">
-        <v>0.01986914619646641</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07823644544940668</v>
+      </c>
+      <c r="H74">
+        <v>-0.009285104834315621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.211897311276208</v>
+        <v>-0.2222236700562477</v>
       </c>
       <c r="C75">
-        <v>0.1202844462121877</v>
+        <v>-0.1279840461774697</v>
       </c>
       <c r="D75">
-        <v>0.07104153086048974</v>
+        <v>0.1084628341080938</v>
       </c>
       <c r="E75">
-        <v>-0.09390862115521337</v>
+        <v>-0.02360921258674914</v>
       </c>
       <c r="F75">
-        <v>-0.1803459467533153</v>
+        <v>-0.1608869254066068</v>
       </c>
       <c r="G75">
-        <v>0.1020196055850706</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1583060630419463</v>
+      </c>
+      <c r="H75">
+        <v>-0.09398138679233402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2517604716821664</v>
+        <v>-0.2048651989705167</v>
       </c>
       <c r="C76">
-        <v>0.1207545921871906</v>
+        <v>-0.1220621296429361</v>
       </c>
       <c r="D76">
-        <v>0.01401095221041436</v>
+        <v>0.09701068271983559</v>
       </c>
       <c r="E76">
-        <v>-0.05150202600569423</v>
+        <v>0.01711905699398149</v>
       </c>
       <c r="F76">
-        <v>-0.1948697561054487</v>
+        <v>-0.1526729985077602</v>
       </c>
       <c r="G76">
-        <v>0.08400788016645984</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1691333856465898</v>
+      </c>
+      <c r="H76">
+        <v>-0.09570862366406369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1326775157940764</v>
+        <v>-0.07516879808936157</v>
       </c>
       <c r="C77">
-        <v>-0.01668143238915126</v>
+        <v>-0.01771384808269416</v>
       </c>
       <c r="D77">
-        <v>0.07580029682405696</v>
+        <v>0.07337750373868232</v>
       </c>
       <c r="E77">
-        <v>-0.1050326089873549</v>
+        <v>-0.01340392698698666</v>
       </c>
       <c r="F77">
-        <v>0.244558265196341</v>
+        <v>-0.009825133436037881</v>
       </c>
       <c r="G77">
-        <v>0.1424293213056769</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.125427543372031</v>
+      </c>
+      <c r="H77">
+        <v>-0.06036959123869791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05037800795480466</v>
+        <v>-0.03435573953192079</v>
       </c>
       <c r="C78">
-        <v>0.01231978994245035</v>
+        <v>-0.01289788855872408</v>
       </c>
       <c r="D78">
-        <v>0.03434256550271879</v>
+        <v>0.05751699067005245</v>
       </c>
       <c r="E78">
-        <v>-0.1112285362368857</v>
+        <v>0.005045197417677917</v>
       </c>
       <c r="F78">
-        <v>0.03003237179328275</v>
+        <v>-0.0535054167657998</v>
       </c>
       <c r="G78">
-        <v>0.05723800526586714</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05034386317885018</v>
+      </c>
+      <c r="H78">
+        <v>0.03021136308362444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2062583758313439</v>
+        <v>-0.1740657422168462</v>
       </c>
       <c r="C80">
-        <v>-0.1309044134241828</v>
+        <v>-0.07314869599419969</v>
       </c>
       <c r="D80">
-        <v>-0.9265834495566991</v>
+        <v>0.007286509041185174</v>
       </c>
       <c r="E80">
-        <v>-0.2455364773373706</v>
+        <v>0.9592780803465053</v>
       </c>
       <c r="F80">
-        <v>0.03127368610286734</v>
+        <v>0.131072785730355</v>
       </c>
       <c r="G80">
-        <v>-0.02772283529903542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1011605590915981</v>
+      </c>
+      <c r="H80">
+        <v>0.008282987876454821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1506931564700834</v>
+        <v>-0.1501318880547773</v>
       </c>
       <c r="C81">
-        <v>0.101719304413592</v>
+        <v>-0.0863101970985876</v>
       </c>
       <c r="D81">
-        <v>0.02132951298936579</v>
+        <v>0.06248896528546447</v>
       </c>
       <c r="E81">
-        <v>-0.06115869606564985</v>
+        <v>-0.001201395232399455</v>
       </c>
       <c r="F81">
-        <v>-0.1743249118820462</v>
+        <v>-0.1104957076049579</v>
       </c>
       <c r="G81">
-        <v>0.02452695218684623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.101343553348391</v>
+      </c>
+      <c r="H81">
+        <v>-0.06946450163997488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05110520969876613</v>
+        <v>-0.03746877450097979</v>
       </c>
       <c r="C83">
-        <v>-0.01115434780377007</v>
+        <v>-0.01115201446831851</v>
       </c>
       <c r="D83">
-        <v>0.04021215207481426</v>
+        <v>0.02090348266765196</v>
       </c>
       <c r="E83">
-        <v>-0.04476864361013089</v>
+        <v>-0.01275551076334996</v>
       </c>
       <c r="F83">
-        <v>0.06553975590884711</v>
+        <v>-0.01244014155016548</v>
       </c>
       <c r="G83">
-        <v>0.05532479733212094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05456357572127832</v>
+      </c>
+      <c r="H83">
+        <v>0.01705573727164898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2208023780455743</v>
+        <v>-0.2087078417547652</v>
       </c>
       <c r="C85">
-        <v>0.1030315624826918</v>
+        <v>-0.1075101621382969</v>
       </c>
       <c r="D85">
-        <v>0.04314319548228278</v>
+        <v>0.1143907371217834</v>
       </c>
       <c r="E85">
-        <v>-0.05661550578171309</v>
+        <v>-0.01259639214082907</v>
       </c>
       <c r="F85">
-        <v>-0.1924262732516774</v>
+        <v>-0.143592138925055</v>
       </c>
       <c r="G85">
-        <v>0.09866018295099968</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1639747387155187</v>
+      </c>
+      <c r="H85">
+        <v>-0.0661729156095969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004092396492438926</v>
+        <v>-0.01303518538226706</v>
       </c>
       <c r="C86">
-        <v>-0.009492045228361494</v>
+        <v>0.001160869930816759</v>
       </c>
       <c r="D86">
-        <v>0.003912966834507243</v>
+        <v>0.005162362716824556</v>
       </c>
       <c r="E86">
-        <v>-0.05399034056931708</v>
+        <v>-0.009167384128799588</v>
       </c>
       <c r="F86">
-        <v>0.07447954233395263</v>
+        <v>0.001799258703578835</v>
       </c>
       <c r="G86">
-        <v>0.03279418773226609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07988897735044373</v>
+      </c>
+      <c r="H86">
+        <v>0.04289621230992468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03145552503444519</v>
+        <v>-0.02746655069459632</v>
       </c>
       <c r="C87">
-        <v>0.007420584402543285</v>
+        <v>-0.005583327379716406</v>
       </c>
       <c r="D87">
-        <v>0.01343532757518599</v>
+        <v>0.02567171664950411</v>
       </c>
       <c r="E87">
-        <v>-0.03762881982062844</v>
+        <v>-0.0007344172543122664</v>
       </c>
       <c r="F87">
-        <v>0.07597967818789354</v>
+        <v>-0.02609115888723415</v>
       </c>
       <c r="G87">
-        <v>-0.01507203453992652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08959981065336335</v>
+      </c>
+      <c r="H87">
+        <v>0.03092334482075883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008616414023775385</v>
+        <v>-0.03838799149060281</v>
       </c>
       <c r="C88">
-        <v>0.01670086435912798</v>
+        <v>0.006080188743401601</v>
       </c>
       <c r="D88">
-        <v>-0.02264253921469388</v>
+        <v>-0.006997012663274799</v>
       </c>
       <c r="E88">
-        <v>0.004520354086693248</v>
+        <v>0.007320580677246837</v>
       </c>
       <c r="F88">
-        <v>0.03520492062768756</v>
+        <v>-0.01132968637848998</v>
       </c>
       <c r="G88">
-        <v>0.08600054459843326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005228697668682404</v>
+      </c>
+      <c r="H88">
+        <v>0.008279254409876235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1344404078227662</v>
+        <v>-0.2148530879871218</v>
       </c>
       <c r="C89">
-        <v>0.09495491877306364</v>
+        <v>-0.06406359201632886</v>
       </c>
       <c r="D89">
-        <v>-0.02796694722559217</v>
+        <v>-0.3135383197186655</v>
       </c>
       <c r="E89">
-        <v>0.2898917050727547</v>
+        <v>-0.08212691484948031</v>
       </c>
       <c r="F89">
-        <v>0.1130161583460265</v>
+        <v>0.1718499046424816</v>
       </c>
       <c r="G89">
-        <v>0.06426272541669055</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.005975789419530845</v>
+      </c>
+      <c r="H89">
+        <v>-0.02670307820733915</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.121275358339024</v>
+        <v>-0.1699955968303592</v>
       </c>
       <c r="C90">
-        <v>0.09922926674128793</v>
+        <v>-0.0516044630491367</v>
       </c>
       <c r="D90">
-        <v>-0.07908573030435949</v>
+        <v>-0.2772217733685051</v>
       </c>
       <c r="E90">
-        <v>0.2711938959730473</v>
+        <v>-0.05362941846811836</v>
       </c>
       <c r="F90">
-        <v>0.07593605958709203</v>
+        <v>0.1638750223406442</v>
       </c>
       <c r="G90">
-        <v>-0.01044482252937705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03703253023624897</v>
+      </c>
+      <c r="H90">
+        <v>-0.04343832133824749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2856510677141967</v>
+        <v>-0.2270154340945892</v>
       </c>
       <c r="C91">
-        <v>0.09885979750982227</v>
+        <v>-0.1287121896418778</v>
       </c>
       <c r="D91">
-        <v>0.0624524171606712</v>
+        <v>0.1168829725280805</v>
       </c>
       <c r="E91">
-        <v>-0.0524574289769947</v>
+        <v>-0.0150374193791766</v>
       </c>
       <c r="F91">
-        <v>-0.2639578431327625</v>
+        <v>-0.1511411042806178</v>
       </c>
       <c r="G91">
-        <v>0.05934966848675471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2064071425525611</v>
+      </c>
+      <c r="H91">
+        <v>-0.1284659065873653</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1932219419669882</v>
+        <v>-0.2265905876435755</v>
       </c>
       <c r="C92">
-        <v>0.07239771411481642</v>
+        <v>-0.1230354756637752</v>
       </c>
       <c r="D92">
-        <v>-0.1066346777599103</v>
+        <v>-0.2223946509369404</v>
       </c>
       <c r="E92">
-        <v>0.4530054484502479</v>
+        <v>-0.03827576354776669</v>
       </c>
       <c r="F92">
-        <v>0.1780731153709921</v>
+        <v>0.142850998291192</v>
       </c>
       <c r="G92">
-        <v>0.2467785666987302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0448436793030848</v>
+      </c>
+      <c r="H92">
+        <v>-0.1442114888304084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1357165810359637</v>
+        <v>-0.1951405974162128</v>
       </c>
       <c r="C93">
-        <v>0.08350335869793815</v>
+        <v>-0.06619728054166148</v>
       </c>
       <c r="D93">
-        <v>-0.08966567163081685</v>
+        <v>-0.2924362120540365</v>
       </c>
       <c r="E93">
-        <v>0.3860236328294533</v>
+        <v>-0.07140131718927847</v>
       </c>
       <c r="F93">
-        <v>0.03170106168170665</v>
+        <v>0.1992070800116367</v>
       </c>
       <c r="G93">
-        <v>-0.02714058518032782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04645788191966266</v>
+      </c>
+      <c r="H93">
+        <v>0.01505661438886755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2575300358745446</v>
+        <v>-0.2483086608508118</v>
       </c>
       <c r="C94">
-        <v>0.1329352341660529</v>
+        <v>-0.1204218727421331</v>
       </c>
       <c r="D94">
-        <v>0.02913634137156746</v>
+        <v>0.08869712436920857</v>
       </c>
       <c r="E94">
-        <v>-0.04532498390496019</v>
+        <v>-0.03230761547243786</v>
       </c>
       <c r="F94">
-        <v>-0.3031902378302746</v>
+        <v>-0.1661585064407214</v>
       </c>
       <c r="G94">
-        <v>0.00826723738981836</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2116317949174217</v>
+      </c>
+      <c r="H94">
+        <v>-0.1409917921908206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07576454273792908</v>
+        <v>-0.06456598425354393</v>
       </c>
       <c r="C95">
-        <v>0.013022850787643</v>
+        <v>-0.03911187488346545</v>
       </c>
       <c r="D95">
-        <v>0.0646198971491054</v>
+        <v>0.07371567857257007</v>
       </c>
       <c r="E95">
-        <v>-0.09011975013463125</v>
+        <v>-0.0712193950206132</v>
       </c>
       <c r="F95">
-        <v>0.03189684035184878</v>
+        <v>-0.03485162200536349</v>
       </c>
       <c r="G95">
-        <v>0.3786246555522918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05865391824184955</v>
+      </c>
+      <c r="H95">
+        <v>0.0101331277128444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1893797505484171</v>
+        <v>-0.1724577271773162</v>
       </c>
       <c r="C98">
-        <v>0.04868686276450198</v>
+        <v>-0.08870920483663147</v>
       </c>
       <c r="D98">
-        <v>0.04981540120940449</v>
+        <v>0.02884341217307233</v>
       </c>
       <c r="E98">
-        <v>0.04259003475697735</v>
+        <v>-0.05646568200989877</v>
       </c>
       <c r="F98">
-        <v>0.05380597821346512</v>
+        <v>-0.03256142685642642</v>
       </c>
       <c r="G98">
-        <v>-0.284330867340877</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1543273635247647</v>
+      </c>
+      <c r="H98">
+        <v>0.3703306296180136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0004999522936503735</v>
+        <v>-0.01269594581497898</v>
       </c>
       <c r="C101">
-        <v>0.03042865343472787</v>
+        <v>-0.001314371624893102</v>
       </c>
       <c r="D101">
-        <v>0.01002290386994681</v>
+        <v>0.001561527519427694</v>
       </c>
       <c r="E101">
-        <v>-0.1352786281228351</v>
+        <v>0.006125175294382636</v>
       </c>
       <c r="F101">
-        <v>0.1624251092394289</v>
+        <v>-0.03597388152950869</v>
       </c>
       <c r="G101">
-        <v>-0.03262466550335647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09657104458824876</v>
+      </c>
+      <c r="H101">
+        <v>-0.07055732133463717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0915672342461178</v>
+        <v>-0.1053172225906217</v>
       </c>
       <c r="C102">
-        <v>0.03174026813336497</v>
+        <v>-0.04650593054120906</v>
       </c>
       <c r="D102">
-        <v>0.01246473817290459</v>
+        <v>0.05738302594168627</v>
       </c>
       <c r="E102">
-        <v>-0.06460916363543961</v>
+        <v>0.0002239684843864367</v>
       </c>
       <c r="F102">
-        <v>-0.1292912566657938</v>
+        <v>-0.07498045935065874</v>
       </c>
       <c r="G102">
-        <v>0.09386833742882399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09231844194106327</v>
+      </c>
+      <c r="H102">
+        <v>-0.05576346319801346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02440300933049254</v>
+        <v>-0.02171403735523915</v>
       </c>
       <c r="C103">
-        <v>0.0132524512295427</v>
+        <v>-0.01083000748238476</v>
       </c>
       <c r="D103">
-        <v>0.01100171189866333</v>
+        <v>0.01228517606910936</v>
       </c>
       <c r="E103">
-        <v>-0.003996181196021955</v>
+        <v>0.005610957748055838</v>
       </c>
       <c r="F103">
-        <v>-0.02498041516860513</v>
+        <v>-0.01904856991720581</v>
       </c>
       <c r="G103">
-        <v>0.03799579985201942</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.008883984326286889</v>
+      </c>
+      <c r="H103">
+        <v>-0.009482251627755787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3740542534058729</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9049934761641824</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06835062634265326</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02634436356606104</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1561285170719308</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03734451696449775</v>
+      </c>
+      <c r="H104">
+        <v>-0.03230543312799684</v>
       </c>
     </row>
   </sheetData>
